--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value696.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value696.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2567929995332478</v>
+        <v>1.117504239082336</v>
       </c>
       <c r="B1">
-        <v>0.133811295081501</v>
+        <v>1.347274899482727</v>
       </c>
       <c r="C1">
-        <v>0.09519005483724882</v>
+        <v>1.809825778007507</v>
       </c>
       <c r="D1">
-        <v>0.08646465097103286</v>
+        <v>3.407470703125</v>
       </c>
       <c r="E1">
-        <v>0.08857669973393299</v>
+        <v>1.99773120880127</v>
       </c>
     </row>
   </sheetData>
